--- a/data_year/zb/金融业/金融机构人民币信贷资金平衡表(资金运用).xlsx
+++ b/data_year/zb/金融业/金融机构人民币信贷资金平衡表(资金运用).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,860 +508,572 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133325.32</v>
+        <v>805879.09</v>
       </c>
       <c r="C2" t="n">
-        <v>99371.07000000001</v>
+        <v>479195.55</v>
       </c>
       <c r="D2" t="n">
-        <v>27931.19</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>288930.43</v>
+      </c>
+      <c r="E2" t="n">
+        <v>134.5547739781</v>
+      </c>
       <c r="F2" t="n">
-        <v>65748.07000000001</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>166233.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14814.5204114849</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2700.9923745432</v>
+      </c>
+      <c r="I2" t="n">
+        <v>478976.466622331</v>
+      </c>
+      <c r="J2" t="n">
+        <v>219.0813990033</v>
+      </c>
       <c r="K2" t="n">
-        <v>576.3</v>
+        <v>1692.5</v>
       </c>
       <c r="L2" t="n">
-        <v>14291.14</v>
+        <v>225795.14</v>
       </c>
       <c r="M2" t="n">
-        <v>19651.07</v>
+        <v>98526.06</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>12.04</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153539.78</v>
+        <v>913226.330147185</v>
       </c>
       <c r="C3" t="n">
-        <v>112314.7</v>
+        <v>547946.69059894</v>
       </c>
       <c r="D3" t="n">
-        <v>39238.08</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>323806.516320684</v>
+      </c>
+      <c r="E3" t="n">
+        <v>182.9628299084</v>
+      </c>
       <c r="F3" t="n">
-        <v>67327.23</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>203132.624331773</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15124.4533030503</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4151.6954626385</v>
+      </c>
+      <c r="I3" t="n">
+        <v>546398.252248054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1548.4383508857</v>
+      </c>
       <c r="K3" t="n">
-        <v>754.22</v>
+        <v>1718.67</v>
       </c>
       <c r="L3" t="n">
-        <v>17856.43</v>
+        <v>253587.011035579</v>
       </c>
       <c r="M3" t="n">
-        <v>22112.65</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>96479.3941406193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12824.7243720464</v>
+      </c>
       <c r="O3" t="n">
-        <v>256</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184024.52</v>
+        <v>1024067.49</v>
       </c>
       <c r="C4" t="n">
-        <v>131293.93</v>
+        <v>629909.64</v>
       </c>
       <c r="D4" t="n">
-        <v>48642.04</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>352907.42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>556.13</v>
+      </c>
       <c r="F4" t="n">
-        <v>74247.89999999999</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>248272.76</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20433.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5930.98</v>
+      </c>
+      <c r="I4" t="n">
+        <v>628100.53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1809.11</v>
+      </c>
       <c r="K4" t="n">
-        <v>798.22</v>
+        <v>1640.6</v>
       </c>
       <c r="L4" t="n">
-        <v>23223.34</v>
+        <v>258533.49</v>
       </c>
       <c r="M4" t="n">
-        <v>26789.73</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>111680.87</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21633.05</v>
+      </c>
       <c r="O4" t="n">
-        <v>337.24</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225313.26</v>
+        <v>1174666.17</v>
       </c>
       <c r="C5" t="n">
-        <v>158996.23</v>
+        <v>718961.456953993</v>
       </c>
       <c r="D5" t="n">
-        <v>63401.4</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>398862</v>
+      </c>
+      <c r="E5" t="n">
+        <v>733</v>
+      </c>
       <c r="F5" t="n">
-        <v>83661.14999999999</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>290238</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19594</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>717087.6899999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1873.76</v>
+      </c>
       <c r="K5" t="n">
-        <v>873.4</v>
+        <v>1579.87</v>
       </c>
       <c r="L5" t="n">
-        <v>34846.92</v>
+        <v>286303.83</v>
       </c>
       <c r="M5" t="n">
-        <v>30259.47</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>125399.38</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41751.79</v>
+      </c>
       <c r="O5" t="n">
-        <v>337.24</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261910.799780558</v>
+        <v>1323453.03</v>
       </c>
       <c r="C6" t="n">
-        <v>178197.78</v>
+        <v>816770.010016833</v>
       </c>
       <c r="D6" t="n">
-        <v>76707.37</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>459482</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1634</v>
+      </c>
       <c r="F6" t="n">
-        <v>86836.83</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>314796</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29169.41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9699</v>
+      </c>
+      <c r="I6" t="n">
+        <v>814780.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1989.68</v>
+      </c>
       <c r="K6" t="n">
-        <v>682.9</v>
+        <v>1516.37</v>
       </c>
       <c r="L6" t="n">
-        <v>52592.64</v>
+        <v>294090.46</v>
       </c>
       <c r="M6" t="n">
-        <v>30934.53</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>144954.22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>65452.13</v>
+      </c>
       <c r="O6" t="n">
-        <v>337.24</v>
+        <v>669.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302042.8</v>
+        <v>1541203.7</v>
       </c>
       <c r="C7" t="n">
-        <v>194690.39</v>
-      </c>
-      <c r="D7" t="n">
-        <v>87460.42</v>
-      </c>
+        <v>939540.16</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>87449.16</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>45756.02</v>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>936386.6899999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3153.47</v>
+      </c>
       <c r="K7" t="n">
-        <v>861.96</v>
+        <v>1513.46</v>
       </c>
       <c r="L7" t="n">
-        <v>71211.12</v>
+        <v>265858.52</v>
       </c>
       <c r="M7" t="n">
-        <v>34942.13</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>197636.22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>134325.8</v>
+      </c>
       <c r="O7" t="n">
-        <v>337.24</v>
+        <v>2329.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365168.25</v>
+        <v>1759952.28</v>
       </c>
       <c r="C8" t="n">
-        <v>225347.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>106512.4</v>
-      </c>
+        <v>1066040.06</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>98509.53</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>54709.52</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1061666.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4373.26</v>
+      </c>
       <c r="K8" t="n">
-        <v>1074.59</v>
+        <v>3520.89</v>
       </c>
       <c r="L8" t="n">
-        <v>98980.27</v>
+        <v>219425.26</v>
       </c>
       <c r="M8" t="n">
-        <v>39490.87</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>247604.49</v>
+      </c>
+      <c r="N8" t="n">
+        <v>220820.08</v>
+      </c>
       <c r="O8" t="n">
-        <v>337.24</v>
+        <v>2541.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>454267.97</v>
+        <v>1931934.41</v>
       </c>
       <c r="C9" t="n">
-        <v>261690.88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>131539.08</v>
-      </c>
+        <v>1201320.99</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>114477.91</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>38873.41</v>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1196900.23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4420.75</v>
+      </c>
       <c r="K9" t="n">
-        <v>1072.57</v>
+        <v>1313.32</v>
       </c>
       <c r="L9" t="n">
-        <v>128377.32</v>
+        <v>214788.33</v>
       </c>
       <c r="M9" t="n">
-        <v>62789.96</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>294381.54</v>
+      </c>
+      <c r="N9" t="n">
+        <v>217588.73</v>
+      </c>
       <c r="O9" t="n">
-        <v>337.24</v>
+        <v>2541.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538405.59</v>
+        <v>2109164</v>
       </c>
       <c r="C10" t="n">
-        <v>303394.64</v>
-      </c>
-      <c r="D10" t="n">
-        <v>154999.79</v>
-      </c>
+        <v>1362967</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>125181.65</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>57806.88</v>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1357891</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5075</v>
+      </c>
       <c r="K10" t="n">
-        <v>940.73</v>
+        <v>1414</v>
       </c>
       <c r="L10" t="n">
-        <v>168431.11</v>
+        <v>212557</v>
       </c>
       <c r="M10" t="n">
-        <v>65301.87</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>333467</v>
+      </c>
+      <c r="N10" t="n">
+        <v>196190</v>
+      </c>
       <c r="O10" t="n">
-        <v>337.24</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>681874.78</v>
+        <v>2317003.06</v>
       </c>
       <c r="C11" t="n">
-        <v>399684.82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>222418.76</v>
-      </c>
+        <v>1531123.2</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>146611.31</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>76175.50999999999</v>
+      </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1525755.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5367.86</v>
+      </c>
       <c r="K11" t="n">
-        <v>1764.51</v>
+        <v>1457.32</v>
       </c>
       <c r="L11" t="n">
-        <v>193112.47</v>
+        <v>212317.26</v>
       </c>
       <c r="M11" t="n">
-        <v>86643.14999999999</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>385520</v>
+      </c>
+      <c r="N11" t="n">
+        <v>183729.65</v>
+      </c>
       <c r="O11" t="n">
-        <v>669.84</v>
+        <v>2855.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805879.09</v>
+        <v>2574701</v>
       </c>
       <c r="C12" t="n">
-        <v>479195.55</v>
-      </c>
-      <c r="D12" t="n">
-        <v>288930.43</v>
-      </c>
-      <c r="E12" t="n">
-        <v>134.5547739781</v>
-      </c>
-      <c r="F12" t="n">
-        <v>166233.38</v>
-      </c>
+        <v>1727452.07</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>14814.5204114849</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2700.9923745432</v>
-      </c>
+        <v>83554.53999999999</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>478976.466622331</v>
+        <v>1721356.18</v>
       </c>
       <c r="J12" t="n">
-        <v>219.0813990033</v>
+        <v>6095.89</v>
       </c>
       <c r="K12" t="n">
-        <v>1692.5</v>
+        <v>1532.15</v>
       </c>
       <c r="L12" t="n">
-        <v>225795.14</v>
+        <v>211308.1</v>
       </c>
       <c r="M12" t="n">
-        <v>98526.06</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>450125.43</v>
+      </c>
+      <c r="N12" t="n">
+        <v>181427.63</v>
+      </c>
       <c r="O12" t="n">
-        <v>669.84</v>
+        <v>2855.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>913226.330147185</v>
+        <v>2831289.23</v>
       </c>
       <c r="C13" t="n">
-        <v>547946.69059894</v>
-      </c>
-      <c r="D13" t="n">
-        <v>323806.516320684</v>
-      </c>
-      <c r="E13" t="n">
-        <v>182.9628299084</v>
-      </c>
-      <c r="F13" t="n">
-        <v>203132.624331773</v>
-      </c>
+        <v>1926902.81</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>15124.4533030503</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4151.6954626385</v>
-      </c>
+        <v>98516.05</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>546398.252248054</v>
+        <v>1919854.89</v>
       </c>
       <c r="J13" t="n">
-        <v>1548.4383508857</v>
+        <v>7047.92</v>
       </c>
       <c r="K13" t="n">
-        <v>1718.67</v>
+        <v>4123.14</v>
       </c>
       <c r="L13" t="n">
-        <v>253587.011035579</v>
+        <v>212867.2</v>
       </c>
       <c r="M13" t="n">
-        <v>96479.3941406193</v>
+        <v>503153.56</v>
       </c>
       <c r="N13" t="n">
-        <v>12824.7243720464</v>
+        <v>181386.9</v>
       </c>
       <c r="O13" t="n">
-        <v>669.84</v>
+        <v>2855.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1024067.49</v>
+        <v>3121814.5</v>
       </c>
       <c r="C14" t="n">
-        <v>629909.64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>352907.42</v>
-      </c>
-      <c r="E14" t="n">
-        <v>556.13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>248272.76</v>
-      </c>
+        <v>2139852.67</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>20433.24</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5930.98</v>
-      </c>
+        <v>128090.48</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>628100.53</v>
+        <v>2130060.36</v>
       </c>
       <c r="J14" t="n">
-        <v>1809.11</v>
+        <v>9792.309999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>1640.6</v>
+        <v>4387.03</v>
       </c>
       <c r="L14" t="n">
-        <v>258533.49</v>
+        <v>214712.28</v>
       </c>
       <c r="M14" t="n">
-        <v>111680.87</v>
+        <v>572976.96</v>
       </c>
       <c r="N14" t="n">
-        <v>21633.05</v>
+        <v>186778.99</v>
       </c>
       <c r="O14" t="n">
-        <v>669.84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1174666.17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>718961.456953993</v>
-      </c>
-      <c r="D15" t="n">
-        <v>398862</v>
-      </c>
-      <c r="E15" t="n">
-        <v>733</v>
-      </c>
-      <c r="F15" t="n">
-        <v>290238</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19594</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7661</v>
-      </c>
-      <c r="I15" t="n">
-        <v>717087.6899999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1873.76</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1579.87</v>
-      </c>
-      <c r="L15" t="n">
-        <v>286303.83</v>
-      </c>
-      <c r="M15" t="n">
-        <v>125399.38</v>
-      </c>
-      <c r="N15" t="n">
-        <v>41751.79</v>
-      </c>
-      <c r="O15" t="n">
-        <v>669.84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1323453.03</v>
-      </c>
-      <c r="C16" t="n">
-        <v>816770.010016833</v>
-      </c>
-      <c r="D16" t="n">
-        <v>459482</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1634</v>
-      </c>
-      <c r="F16" t="n">
-        <v>314796</v>
-      </c>
-      <c r="G16" t="n">
-        <v>29169.41</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9699</v>
-      </c>
-      <c r="I16" t="n">
-        <v>814780.33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1989.68</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1516.37</v>
-      </c>
-      <c r="L16" t="n">
-        <v>294090.46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>144954.22</v>
-      </c>
-      <c r="N16" t="n">
-        <v>65452.13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>669.84</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1541203.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>939540.16</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>45756.02</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>936386.6899999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3153.47</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1513.46</v>
-      </c>
-      <c r="L17" t="n">
-        <v>265858.52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>197636.22</v>
-      </c>
-      <c r="N17" t="n">
-        <v>134325.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2329.54</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1759952.28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1066040.06</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>54709.52</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>1061666.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4373.26</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3520.89</v>
-      </c>
-      <c r="L18" t="n">
-        <v>219425.26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>247604.49</v>
-      </c>
-      <c r="N18" t="n">
-        <v>220820.08</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2541.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1931934.41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1201320.99</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>38873.41</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>1196900.23</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4420.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1313.32</v>
-      </c>
-      <c r="L19" t="n">
-        <v>214788.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>294381.54</v>
-      </c>
-      <c r="N19" t="n">
-        <v>217588.73</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2541.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2109164</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1362967</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>57806.88</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>1357891</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5075</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1414</v>
-      </c>
-      <c r="L20" t="n">
-        <v>212557</v>
-      </c>
-      <c r="M20" t="n">
-        <v>333467</v>
-      </c>
-      <c r="N20" t="n">
-        <v>196190</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2317003</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1531123.20455044</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>76175.50999999999</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>1525755.34817987</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5367.8563705773</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1457</v>
-      </c>
-      <c r="L21" t="n">
-        <v>212317.261957516</v>
-      </c>
-      <c r="M21" t="n">
-        <v>385519.998348123</v>
-      </c>
-      <c r="N21" t="n">
-        <v>183729.651649056</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2574701.00495831</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1727452.06892514</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>83554.53999999999</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>1721356.18204731</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6095.8868778318</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1532.14615508045</v>
-      </c>
-      <c r="L22" t="n">
-        <v>211308.100488517</v>
-      </c>
-      <c r="M22" t="n">
-        <v>450125.429546078</v>
-      </c>
-      <c r="N22" t="n">
-        <v>181427.632883647</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2855.6269598502</v>
+        <v>3106.57</v>
       </c>
     </row>
   </sheetData>
